--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/Template_Import_Luong.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/Template_Import_Luong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Ma NV</t>
   </si>
@@ -52,13 +52,25 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>9877/2014/QD-EDUTOP64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,6 +120,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,34 +413,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="6" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="12.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -428,10 +451,10 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -447,46 +470,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>41640</v>
+      </c>
+      <c r="F2" s="5">
+        <v>41640</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42003</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>41640</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
